--- a/benchmark/benchmark.xlsx
+++ b/benchmark/benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenzhen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenzhen/Workspace/MatrixSlow/benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4879D85-D2E5-7E42-BD9E-4D3FEDFFB16E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF8083B-7A2B-084C-B5C0-0D2F912AE18F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="31">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -121,6 +122,12 @@
   </si>
   <si>
     <t xml:space="preserve">平均 </t>
+  </si>
+  <si>
+    <t>AllReduce-3</t>
+  </si>
+  <si>
+    <t>AllReduce-5</t>
   </si>
 </sst>
 </file>
@@ -574,10 +581,10 @@
                   <c:v>PS-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>All Reduce-3</c:v>
+                  <c:v>AllReduce-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>All Reduce-5</c:v>
+                  <c:v>AllReduce-5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -652,10 +659,10 @@
                   <c:v>PS-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>All Reduce-3</c:v>
+                  <c:v>AllReduce-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>All Reduce-5</c:v>
+                  <c:v>AllReduce-5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -735,7 +742,7 @@
                 <a:latin typeface="Helvetica Neue"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734553"/>
@@ -786,7 +793,7 @@
                 <a:latin typeface="Helvetica Neue"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734552"/>
@@ -837,7 +844,7 @@
               <a:latin typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -930,7 +937,7 @@
                     <a:latin typeface="Helvetica Neue"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -962,10 +969,10 @@
                   <c:v>PS-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>All Reduce-3</c:v>
+                  <c:v>AllReduce-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>All Reduce-5</c:v>
+                  <c:v>AllReduce-5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1045,7 +1052,7 @@
                 <a:latin typeface="Helvetica Neue"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734553"/>
@@ -1096,7 +1103,7 @@
                 <a:latin typeface="Helvetica Neue"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734552"/>
@@ -1147,7 +1154,7 @@
               <a:latin typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2485,11 +2492,11 @@
   </sheetPr>
   <dimension ref="A1:IV7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomRight" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2633,7 +2640,7 @@
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B6" s="13">
         <v>10.68</v>
@@ -2662,7 +2669,7 @@
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B7" s="13">
         <v>9.68</v>
@@ -2710,7 +2717,7 @@
   </sheetPr>
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3384,7 +3391,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4080,7 +4087,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5073,7 +5080,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5992,14 +5999,14 @@
         <v>10.9</v>
       </c>
       <c r="C35" s="14">
-        <f t="shared" ref="C35:C66" si="3">B35/F35</f>
+        <f t="shared" ref="C35:C54" si="3">B35/F35</f>
         <v>0.98911070780399279</v>
       </c>
       <c r="D35" s="14">
         <v>0.12</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" ref="E35:E66" si="4">D35/F35</f>
+        <f t="shared" ref="E35:E54" si="4">D35/F35</f>
         <v>1.0889292196007259E-2</v>
       </c>
       <c r="F35" s="14">
@@ -6009,7 +6016,7 @@
         <v>40</v>
       </c>
       <c r="H35" s="23">
-        <f t="shared" ref="H35:H66" si="5">F35/G35</f>
+        <f t="shared" ref="H35:H55" si="5">F35/G35</f>
         <v>0.27549999999999997</v>
       </c>
     </row>
@@ -7500,14 +7507,14 @@
         <v>10.87</v>
       </c>
       <c r="C35" s="14">
-        <f t="shared" ref="C35:C66" si="3">B35/F35</f>
+        <f t="shared" ref="C35:C53" si="3">B35/F35</f>
         <v>0.98998178506375212</v>
       </c>
       <c r="D35" s="14">
         <v>0.11</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" ref="E35:E66" si="4">D35/F35</f>
+        <f t="shared" ref="E35:E53" si="4">D35/F35</f>
         <v>1.0018214936247723E-2</v>
       </c>
       <c r="F35" s="14">
@@ -7517,7 +7524,7 @@
         <v>24</v>
       </c>
       <c r="H35" s="23">
-        <f t="shared" ref="H35:H66" si="5">F35/G35</f>
+        <f t="shared" ref="H35:H54" si="5">F35/G35</f>
         <v>0.45750000000000002</v>
       </c>
     </row>
@@ -8982,14 +8989,14 @@
         <v>6.58</v>
       </c>
       <c r="C35" s="14">
-        <f t="shared" ref="C35:C66" si="3">B35/F35</f>
+        <f t="shared" ref="C35:C55" si="3">B35/F35</f>
         <v>0.55201342281879195</v>
       </c>
       <c r="D35" s="14">
         <v>5.34</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" ref="E35:E66" si="4">D35/F35</f>
+        <f t="shared" ref="E35:E55" si="4">D35/F35</f>
         <v>0.44798657718120805</v>
       </c>
       <c r="F35" s="14">
@@ -8999,7 +9006,7 @@
         <v>40</v>
       </c>
       <c r="H35" s="23">
-        <f t="shared" ref="H35:H66" si="5">F35/G35</f>
+        <f t="shared" ref="H35:H56" si="5">F35/G35</f>
         <v>0.29799999999999999</v>
       </c>
     </row>
